--- a/xlsx_files/Race49.xlsx
+++ b/xlsx_files/Race49.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1173D493-464D-4DC0-855C-77A7C475252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC69F0-FCAF-48A7-98D6-C4E8BDEE51DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7344" yWindow="4392" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Track Name</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Circuit of the Americas - COTA</t>
+  </si>
+  <si>
+    <t>Nikita Dembitskiy</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -779,8 +782,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
+      <c r="B11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -788,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -796,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -804,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -820,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -828,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -836,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -844,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -852,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -860,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -868,12 +871,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2"/>

--- a/xlsx_files/Race49.xlsx
+++ b/xlsx_files/Race49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC69F0-FCAF-48A7-98D6-C4E8BDEE51DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D189B484-8FE7-4C03-933C-6F54A9D9274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Track Name</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Nikita Dembitskiy</t>
+  </si>
+  <si>
+    <t>02:05.5170</t>
   </si>
 </sst>
 </file>
@@ -631,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -699,13 +702,19 @@
         <v>35</v>
       </c>
       <c r="E2" s="1">
-        <v>45483</v>
+        <v>45476</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
